--- a/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296439E-F4CF-402B-9A15-BEF2F64EDC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B417E985-0453-4585-ACFF-C44DC43F64CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9CEFFF8-B0B4-4C9C-80BC-DB11C475041F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A495D184-44A4-44DF-808D-2378AA835ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,445 +80,439 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -530,127 +524,85 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>99,84%</t>
   </si>
   <si>
+    <t>99,62%</t>
+  </si>
+  <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D768168A-FDF0-4A37-A925-86198CB18CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65091E00-8A3A-47E1-B76B-53424FDCC0D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,10 +1311,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1371,13 +1323,13 @@
         <v>7481</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,13 +1344,13 @@
         <v>1313483</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1338</v>
@@ -1407,13 +1359,13 @@
         <v>1366679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>2618</v>
@@ -1422,13 +1374,13 @@
         <v>2680162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,7 +1436,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1496,13 +1448,13 @@
         <v>4550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1511,13 +1463,13 @@
         <v>3075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1526,13 +1478,13 @@
         <v>7624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,16 +1496,16 @@
         <v>425</v>
       </c>
       <c r="D11" s="7">
-        <v>446379</v>
+        <v>446378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>385</v>
@@ -1562,10 +1514,10 @@
         <v>405708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -1577,13 +1529,13 @@
         <v>852088</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,7 +1547,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1651,13 +1603,13 @@
         <v>8367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1669,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1681,13 +1633,13 @@
         <v>23177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,13 +1654,13 @@
         <v>2446375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>2665</v>
@@ -1720,10 +1672,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -1732,13 +1684,13 @@
         <v>5172502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,7 +1746,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9394419D-145C-4751-9129-051D4DE00AE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB4B5BB-64C0-4C9C-904B-FD786A240DFB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1830,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1937,13 +1889,13 @@
         <v>5896</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -1952,13 +1904,13 @@
         <v>3920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1967,13 +1919,13 @@
         <v>9817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1940,13 @@
         <v>773278</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>1047</v>
@@ -2003,13 +1955,13 @@
         <v>1122282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>1775</v>
@@ -2018,13 +1970,13 @@
         <v>1895558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,10 +2047,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2107,13 +2059,13 @@
         <v>13007</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2122,13 +2074,13 @@
         <v>22107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,10 +2098,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1463</v>
@@ -2158,25 +2110,25 @@
         <v>1576378</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="M8" s="7">
         <v>3052</v>
       </c>
       <c r="N8" s="7">
-        <v>3255556</v>
+        <v>3255555</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>102</v>
@@ -2221,7 +2173,7 @@
         <v>3073</v>
       </c>
       <c r="N9" s="7">
-        <v>3277663</v>
+        <v>3277662</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2235,7 +2187,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2247,13 +2199,13 @@
         <v>3047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2262,13 +2214,13 @@
         <v>1904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2277,13 +2229,13 @@
         <v>4951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2250,13 @@
         <v>439087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -2313,13 +2265,13 @@
         <v>421819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>778</v>
@@ -2328,13 +2280,13 @@
         <v>860906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2354,13 @@
         <v>18043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2417,13 +2369,13 @@
         <v>18832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2432,13 +2384,13 @@
         <v>36875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2405,13 @@
         <v>2891543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>2890</v>
@@ -2468,28 +2420,28 @@
         <v>3120478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>5605</v>
       </c>
       <c r="N14" s="7">
-        <v>6012020</v>
+        <v>6012021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2483,7 @@
         <v>5639</v>
       </c>
       <c r="N15" s="7">
-        <v>6048895</v>
+        <v>6048896</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2545,7 +2497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF2ACD-77AC-4987-B426-07313D467959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5219AD55-96D9-4E1F-9FFD-06942FD6D020}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2581,7 +2533,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2688,13 +2640,13 @@
         <v>3086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2703,13 +2655,13 @@
         <v>2365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2718,13 +2670,13 @@
         <v>5451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2691,13 @@
         <v>454333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>580</v>
@@ -2754,13 +2706,13 @@
         <v>636509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
@@ -2769,13 +2721,13 @@
         <v>1090843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,10 +2798,10 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2858,13 +2810,13 @@
         <v>968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2873,13 +2825,13 @@
         <v>968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,10 +2846,10 @@
         <v>1696605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -2909,13 +2861,13 @@
         <v>1707751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>3244</v>
@@ -2924,13 +2876,13 @@
         <v>3404356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2938,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2998,13 +2950,13 @@
         <v>1036</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3013,13 +2965,13 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3028,13 +2980,13 @@
         <v>3629</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3001,13 @@
         <v>498208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3064,13 +3016,13 @@
         <v>505728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>944</v>
@@ -3079,13 +3031,13 @@
         <v>1003935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3105,13 @@
         <v>4122</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3168,13 +3120,13 @@
         <v>5926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3183,13 +3135,13 @@
         <v>10049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3156,13 @@
         <v>2649147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>2711</v>
@@ -3219,13 +3171,13 @@
         <v>2849987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>5226</v>
@@ -3234,13 +3186,13 @@
         <v>5499133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3248,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789D2CBA-0B9D-45ED-96B9-B8E20D93A22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FFCFA8-DDE6-444C-9EC9-ACEDC63384E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3442,10 +3394,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3454,13 +3406,13 @@
         <v>2058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3469,13 +3421,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3442,10 @@
         <v>510683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3505,13 +3457,13 @@
         <v>796666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>2014</v>
@@ -3520,13 +3472,13 @@
         <v>1307349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3546,13 @@
         <v>13800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3609,13 +3561,13 @@
         <v>7478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3627,10 +3579,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3597,13 @@
         <v>2082820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7">
         <v>2838</v>
@@ -3660,13 +3612,13 @@
         <v>2198676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>4749</v>
@@ -3678,10 +3630,10 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3689,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3749,13 +3701,13 @@
         <v>2276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3764,13 +3716,13 @@
         <v>5731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3779,13 +3731,13 @@
         <v>8007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3752,13 @@
         <v>659025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -3815,13 +3767,13 @@
         <v>698330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
@@ -3830,13 +3782,13 @@
         <v>1357355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +3859,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3922,10 +3874,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3934,13 +3886,13 @@
         <v>31343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,10 +3910,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>5185</v>
@@ -3973,10 +3925,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>8411</v>
@@ -3985,13 +3937,13 @@
         <v>6946201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +3999,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B417E985-0453-4585-ACFF-C44DC43F64CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63C8BBE-6A9B-4719-B44B-5AA32BB72032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A495D184-44A4-44DF-808D-2378AA835ADD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37CD301F-5DA2-4598-A63B-19C79028DF66}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -89,489 +89,504 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -581,9 +596,6 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
@@ -596,13 +608,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65091E00-8A3A-47E1-B76B-53424FDCC0D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30067EA-765D-4969-A9D6-5F5B2266373C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1311,10 +1317,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1323,13 +1329,13 @@
         <v>7481</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,13 +1350,13 @@
         <v>1313483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1338</v>
@@ -1359,13 +1365,13 @@
         <v>1366679</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2618</v>
@@ -1374,13 +1380,13 @@
         <v>2680162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,7 +1442,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1448,13 +1454,13 @@
         <v>4550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1463,13 +1469,13 @@
         <v>3075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1478,13 +1484,13 @@
         <v>7624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,16 +1502,16 @@
         <v>425</v>
       </c>
       <c r="D11" s="7">
-        <v>446378</v>
+        <v>446379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>385</v>
@@ -1514,13 +1520,13 @@
         <v>405708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>810</v>
@@ -1529,13 +1535,13 @@
         <v>852088</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1553,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1603,13 +1609,13 @@
         <v>8367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1621,10 +1627,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1633,13 +1639,13 @@
         <v>23177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1660,13 @@
         <v>2446375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2665</v>
@@ -1672,10 +1678,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -1684,13 +1690,13 @@
         <v>5172502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB4B5BB-64C0-4C9C-904B-FD786A240DFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C0D922-E60D-42B2-B51B-A499EF01353E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1782,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1889,13 +1895,13 @@
         <v>5896</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -1904,13 +1910,13 @@
         <v>3920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1919,13 +1925,13 @@
         <v>9817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>773278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1047</v>
@@ -1955,13 +1961,13 @@
         <v>1122282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1775</v>
@@ -1970,13 +1976,13 @@
         <v>1895558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,10 +2053,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2059,13 +2065,13 @@
         <v>13007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2074,13 +2080,13 @@
         <v>22107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,10 +2104,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1463</v>
@@ -2110,28 +2116,28 @@
         <v>1576378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>3052</v>
       </c>
       <c r="N8" s="7">
-        <v>3255555</v>
+        <v>3255556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,7 +2179,7 @@
         <v>3073</v>
       </c>
       <c r="N9" s="7">
-        <v>3277662</v>
+        <v>3277663</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>3047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2214,13 +2220,13 @@
         <v>1904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2229,13 +2235,13 @@
         <v>4951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>439087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -2265,13 +2271,13 @@
         <v>421819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>778</v>
@@ -2280,13 +2286,13 @@
         <v>860906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>18043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2369,13 +2375,13 @@
         <v>18832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2384,13 +2390,13 @@
         <v>36875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>2891543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>2890</v>
@@ -2420,28 +2426,28 @@
         <v>3120478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>5605</v>
       </c>
       <c r="N14" s="7">
-        <v>6012021</v>
+        <v>6012020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>5639</v>
       </c>
       <c r="N15" s="7">
-        <v>6048896</v>
+        <v>6048895</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5219AD55-96D9-4E1F-9FFD-06942FD6D020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E220CD-BEA0-4669-BBF5-A4761E8EC70B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2640,13 +2646,13 @@
         <v>3086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2655,13 +2661,13 @@
         <v>2365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2670,13 +2676,13 @@
         <v>5451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2697,13 @@
         <v>454333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>580</v>
@@ -2706,13 +2712,13 @@
         <v>636509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
@@ -2721,13 +2727,13 @@
         <v>1090843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +2804,10 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2810,13 +2816,13 @@
         <v>968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2825,13 +2831,13 @@
         <v>968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,10 +2852,10 @@
         <v>1696605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -2861,13 +2867,13 @@
         <v>1707751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>3244</v>
@@ -2876,13 +2882,13 @@
         <v>3404356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,7 +2944,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2950,13 +2956,13 @@
         <v>1036</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2965,13 +2971,13 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2980,13 +2986,13 @@
         <v>3629</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3007,13 @@
         <v>498208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3016,13 +3022,13 @@
         <v>505728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>944</v>
@@ -3031,13 +3037,13 @@
         <v>1003935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3111,13 @@
         <v>4122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3120,13 +3126,13 @@
         <v>5926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3135,13 +3141,13 @@
         <v>10049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3162,13 @@
         <v>2649147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>2711</v>
@@ -3171,13 +3177,13 @@
         <v>2849987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>5226</v>
@@ -3186,13 +3192,13 @@
         <v>5499133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3254,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FFCFA8-DDE6-444C-9EC9-ACEDC63384E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9D49CC-C4E1-4786-85E9-2A4D9D4803E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3284,7 +3290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3394,10 +3400,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3406,13 +3412,13 @@
         <v>2058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3421,13 +3427,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,10 +3448,10 @@
         <v>510683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3457,13 +3463,13 @@
         <v>796666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>2014</v>
@@ -3472,13 +3478,13 @@
         <v>1307349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3552,13 @@
         <v>13800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3561,13 +3567,13 @@
         <v>7478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3579,10 +3585,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3603,13 @@
         <v>2082820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>2838</v>
@@ -3612,13 +3618,13 @@
         <v>2198676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>4749</v>
@@ -3630,10 +3636,10 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3695,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3701,13 +3707,13 @@
         <v>2276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3716,13 +3722,13 @@
         <v>5731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3731,13 +3737,13 @@
         <v>8007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3758,13 @@
         <v>659025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -3767,13 +3773,13 @@
         <v>698330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
@@ -3782,13 +3788,13 @@
         <v>1357355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,10 +3865,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3874,10 +3880,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3886,13 +3892,13 @@
         <v>31343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,10 +3916,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>5185</v>
@@ -3925,10 +3931,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>8411</v>
@@ -3937,13 +3943,13 @@
         <v>6946201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +4005,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63C8BBE-6A9B-4719-B44B-5AA32BB72032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EE03A9-2ADA-4795-AAB3-053947EE88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37CD301F-5DA2-4598-A63B-19C79028DF66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F44E7A2D-0EA6-4CB3-B27A-0422F20BBD74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="204">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,544 +71,586 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30067EA-765D-4969-A9D6-5F5B2266373C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5264736A-ABE0-4B0B-AEC1-2198E39957C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,10 +1514,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1484,13 +1526,13 @@
         <v>7624</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,13 +1547,13 @@
         <v>446379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>385</v>
@@ -1520,13 +1562,13 @@
         <v>405708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>810</v>
@@ -1535,13 +1577,13 @@
         <v>852088</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1651,13 @@
         <v>8367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1627,10 +1669,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1639,13 +1681,13 @@
         <v>23177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1702,13 @@
         <v>2446375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>2665</v>
@@ -1678,10 +1720,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>5063</v>
@@ -1690,13 +1732,13 @@
         <v>5172502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1794,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C0D922-E60D-42B2-B51B-A499EF01353E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705D617-E0D9-4F19-973B-832F8B275E66}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1895,13 +1937,13 @@
         <v>5896</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -1910,13 +1952,13 @@
         <v>3920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1925,13 +1967,13 @@
         <v>9817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1988,13 @@
         <v>773278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>1047</v>
@@ -1961,13 +2003,13 @@
         <v>1122282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>1775</v>
@@ -1976,13 +2018,13 @@
         <v>1895558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,10 +2095,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2065,13 +2107,13 @@
         <v>13007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2080,13 +2122,13 @@
         <v>22107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,10 +2146,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>1463</v>
@@ -2116,13 +2158,13 @@
         <v>1576378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>3052</v>
@@ -2131,13 +2173,13 @@
         <v>3255556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2247,13 @@
         <v>3047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2220,13 +2262,13 @@
         <v>1904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2235,13 +2277,13 @@
         <v>4951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2298,13 @@
         <v>439087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -2271,10 +2313,10 @@
         <v>421819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>43</v>
@@ -2286,13 +2328,13 @@
         <v>860906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2402,13 @@
         <v>18043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2375,13 +2417,13 @@
         <v>18832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2390,13 +2432,13 @@
         <v>36875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2453,13 @@
         <v>2891543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>2890</v>
@@ -2426,13 +2468,13 @@
         <v>3120478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>5605</v>
@@ -2441,13 +2483,13 @@
         <v>6012020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E220CD-BEA0-4669-BBF5-A4761E8EC70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B32E25A-4D39-41B8-A0A8-2F6ED831D282}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,7 +2581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2646,13 +2688,13 @@
         <v>3086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2667,7 +2709,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2676,13 +2718,13 @@
         <v>5451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2739,13 @@
         <v>454333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>580</v>
@@ -2715,7 +2757,7 @@
         <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>43</v>
@@ -2727,13 +2769,13 @@
         <v>1090843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2846,10 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2816,13 +2858,13 @@
         <v>968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2831,13 +2873,13 @@
         <v>968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2897,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -2867,10 +2909,10 @@
         <v>1707751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>43</v>
@@ -2882,10 +2924,10 @@
         <v>3404356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>43</v>
@@ -2956,13 +2998,13 @@
         <v>1036</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2971,13 +3013,13 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2986,13 +3028,13 @@
         <v>3629</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,10 +3049,10 @@
         <v>498208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -3022,10 +3064,10 @@
         <v>505728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>43</v>
@@ -3037,13 +3079,13 @@
         <v>1003935</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3153,13 @@
         <v>4122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3126,13 +3168,13 @@
         <v>5926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3141,13 +3183,13 @@
         <v>10049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3207,7 @@
         <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>167</v>
@@ -3177,13 +3219,13 @@
         <v>2849987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>5226</v>
@@ -3192,13 +3234,13 @@
         <v>5499133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3296,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9D49CC-C4E1-4786-85E9-2A4D9D4803E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F338342-D9CB-403A-92B4-7F775DAABF17}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,10 +3442,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3412,13 +3454,13 @@
         <v>2058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3427,13 +3469,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3493,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3463,13 +3505,13 @@
         <v>796666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>2014</v>
@@ -3481,10 +3523,10 @@
         <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3594,13 @@
         <v>13800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3567,13 +3609,13 @@
         <v>7478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3585,10 +3627,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3645,13 @@
         <v>2082820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>2838</v>
@@ -3618,13 +3660,13 @@
         <v>2198676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>4749</v>
@@ -3636,10 +3678,10 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3749,13 @@
         <v>2276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3722,13 +3764,13 @@
         <v>5731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3737,13 +3779,13 @@
         <v>8007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3800,13 @@
         <v>659025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -3773,13 +3815,13 @@
         <v>698330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
@@ -3788,13 +3830,13 @@
         <v>1357355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3910,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3880,10 +3922,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3892,13 +3934,13 @@
         <v>31343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3958,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -3931,10 +3973,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>8411</v>
@@ -3943,13 +3985,13 @@
         <v>6946201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EE03A9-2ADA-4795-AAB3-053947EE88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B751D6B-CDE1-4C7A-B4BC-3313A9AD7CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F44E7A2D-0EA6-4CB3-B27A-0422F20BBD74}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1A4D21-8F39-4B45-972D-B47B332C8E31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -560,97 +560,97 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>0,15%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5264736A-ABE0-4B0B-AEC1-2198E39957C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1183C-BB5D-4CE8-BB9F-3506E26375D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1813,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705D617-E0D9-4F19-973B-832F8B275E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BE88FA-FC15-4469-84B3-F1BD2ED7E055}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2564,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B32E25A-4D39-41B8-A0A8-2F6ED831D282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E06C5E-2D29-4EE7-B3D8-C2E7AAD022A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,7 +2766,7 @@
         <v>1038</v>
       </c>
       <c r="N5" s="7">
-        <v>1090843</v>
+        <v>1090842</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>140</v>
@@ -2817,7 +2817,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3315,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F338342-D9CB-403A-92B4-7F775DAABF17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3AE8EE-23BD-42BB-AE14-3850F09B9DA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3451,31 +3451,31 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2058</v>
+        <v>1764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2058</v>
+        <v>1764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3487,13 @@
         <v>648</v>
       </c>
       <c r="D5" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3502,31 +3502,31 @@
         <v>1366</v>
       </c>
       <c r="I5" s="7">
-        <v>796666</v>
+        <v>719852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>2014</v>
       </c>
       <c r="N5" s="7">
-        <v>1307349</v>
+        <v>1204293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3538,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3553,7 +3553,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3568,7 +3568,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3591,46 +3591,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>13800</v>
+        <v>13038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>7478</v>
+        <v>6558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>21278</v>
+        <v>19596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,46 +3642,46 @@
         <v>1911</v>
       </c>
       <c r="D8" s="7">
-        <v>2082820</v>
+        <v>2217499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>2838</v>
       </c>
       <c r="I8" s="7">
-        <v>2198676</v>
+        <v>2191348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>4749</v>
       </c>
       <c r="N8" s="7">
-        <v>4281497</v>
+        <v>4408846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3708,7 +3708,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3723,7 +3723,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3746,46 +3746,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2276</v>
+        <v>1947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5731</v>
+        <v>5207</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8007</v>
+        <v>7154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3797,13 @@
         <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>659025</v>
+        <v>629369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>169</v>
@@ -3812,31 +3812,31 @@
         <v>981</v>
       </c>
       <c r="I11" s="7">
-        <v>698330</v>
+        <v>646404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
       </c>
       <c r="N11" s="7">
-        <v>1357355</v>
+        <v>1275773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3848,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3863,7 +3863,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3878,7 +3878,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3901,46 +3901,46 @@
         <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>16076</v>
+        <v>14985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>15267</v>
+        <v>13529</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>31343</v>
+        <v>28514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,46 +3952,46 @@
         <v>3226</v>
       </c>
       <c r="D14" s="7">
-        <v>3252528</v>
+        <v>3331308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>5185</v>
       </c>
       <c r="I14" s="7">
-        <v>3693673</v>
+        <v>3557604</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>8411</v>
       </c>
       <c r="N14" s="7">
-        <v>6946201</v>
+        <v>6888912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,7 +4003,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4018,7 +4018,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4033,7 +4033,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
